--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_2_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_2_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.86000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.858240411187431e-06</v>
+        <v>2.163442525127124e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>4.858240411187431e-06</v>
+        <v>2.163442525127124e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>37.7559447829042</v>
+        <v>40.59733642051505</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[22.438229281976113, 53.07366028383229]</t>
+          <t>[28.39046752180237, 52.80420531922773]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.035335974952645e-05</v>
+        <v>2.857147607393529e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.035335974952645e-05</v>
+        <v>2.857147607393529e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.490605523324888</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9874475407679641, 1.9937635058818115]</t>
+          <t>[1.1887107337907326, 1.9182898084982734]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.497740390656645e-07</v>
+        <v>5.057199103930543e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>3.497740390656645e-07</v>
+        <v>5.057199103930543e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>52.89622747388783</v>
+        <v>45.67476488200646</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.32097500269766, 62.47147994507801]</t>
+          <t>[37.62321548104497, 53.72631428296794]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>6.883382752675971e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>18.96228228228262</v>
+        <v>18.81881881881917</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.97149149149179</v>
+        <v>17.36736736736768</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.95307307307344</v>
+        <v>20.27027027027065</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.86000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.834669321494232e-08</v>
+        <v>8.201268220098257e-09</v>
       </c>
       <c r="I3" t="n">
-        <v>2.834669321494232e-08</v>
+        <v>8.201268220098257e-09</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.2928128548883</v>
+        <v>48.09179624470279</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[29.83084227231528, 60.75478343746131]</t>
+          <t>[32.23993616846488, 63.943656320940704]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.395009196578314e-07</v>
+        <v>2.140216388557548e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>4.395009196578314e-07</v>
+        <v>2.140216388557548e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.301921279866041</v>
+        <v>1.314500229429964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9119738433844251, 1.6918687163476562]</t>
+          <t>[0.9622896416401163, 1.666710817219811]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.613459759714942e-08</v>
+        <v>1.755658285418349e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>2.613459759714942e-08</v>
+        <v>1.755658285418349e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>49.92079545219978</v>
+        <v>54.39633553393848</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[40.90476440620717, 58.93682649819238]</t>
+          <t>[45.274612912458366, 63.5180581554186]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>19.70882882882918</v>
+        <v>19.76976976977014</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.16596596596629</v>
+        <v>18.36836836836871</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.25169169169207</v>
+        <v>21.17117117117157</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.86000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>8.614331470369052e-12</v>
+        <v>2.252333474173085e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>8.614331470369052e-12</v>
+        <v>2.252333474173085e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.42710822471388</v>
+        <v>39.46604517489112</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[36.032197058758726, 62.82201939066904]</t>
+          <t>[24.489831547125156, 54.442258802657086]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.341157490093337e-09</v>
+        <v>3.28159647033921e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.341157490093337e-09</v>
+        <v>3.28159647033921e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.163552834662886</v>
+        <v>1.352237078121732</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8742369946926551, 1.452868674633116]</t>
+          <t>[0.9119738433844242, 1.7925003128590395]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.465030402021284e-10</v>
+        <v>1.651552159476211e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>2.465030402021284e-10</v>
+        <v>1.651552159476211e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>57.81690666955055</v>
+        <v>52.87604776505727</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.52544311220495, 65.10837022689614]</t>
+          <t>[44.2591734032096, 61.49292212690493]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>20.25629629629666</v>
+        <v>19.61961961961999</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.11159159159194</v>
+        <v>17.86786786786821</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.40100100100139</v>
+        <v>21.37137137137178</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.86000000000045</v>
+        <v>25.00000000000047</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.609384212095335e-07</v>
+        <v>5.45724887046628e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>4.609384212095335e-07</v>
+        <v>5.45724887046628e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>34.00687992462709</v>
+        <v>37.51186785259279</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.383884181213727, 48.62987566804044]</t>
+          <t>[19.092245969111552, 55.931489736074035]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.613967844289355e-05</v>
+        <v>0.0001697083080771655</v>
       </c>
       <c r="O5" t="n">
-        <v>2.613967844289355e-05</v>
+        <v>0.0001697083080771655</v>
       </c>
       <c r="P5" t="n">
-        <v>0.735868549489501</v>
+        <v>0.7987632973091161</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.3333421634439606, 1.1383949355350413]</t>
+          <t>[0.34592111300788453, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0006175057258730465</v>
+        <v>0.000908661047379411</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0006175057258730465</v>
+        <v>0.000908661047379411</v>
       </c>
       <c r="T5" t="n">
-        <v>55.85796932337658</v>
+        <v>48.8985040676629</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.360162221502726, 63.35577642525043]</t>
+          <t>[39.53126397628262, 58.26574415904318]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.056932319443149e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.056932319443149e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>21.94846846846886</v>
+        <v>21.82182182182223</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.3558358358362</v>
+        <v>20.0200200200204</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.54110110110153</v>
+        <v>23.62362362362407</v>
       </c>
     </row>
     <row r="6">
@@ -925,53 +925,53 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.42000000000038</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.632672271995489e-12</v>
+        <v>3.963274153306884e-12</v>
       </c>
       <c r="I6" t="n">
-        <v>7.632672271995489e-12</v>
+        <v>3.963274153306884e-12</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>56.3593642112851</v>
+        <v>51.9166441207228</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[40.82712212758229, 71.89160629498792]</t>
+          <t>[38.55920755467403, 65.27408068677157]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.564437633940543e-09</v>
+        <v>6.136280372714964e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>3.564437633940543e-09</v>
+        <v>6.136280372714964e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.3585000625718084</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.3333421634439615, 0.9119738433844242]</t>
+          <t>[0.09434212172942402, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.106255815198971e-05</v>
+        <v>0.008928589696802103</v>
       </c>
       <c r="S6" t="n">
-        <v>8.106255815198971e-05</v>
+        <v>0.008928589696802103</v>
       </c>
       <c r="T6" t="n">
-        <v>56.61444721674472</v>
+        <v>57.10809535188693</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[48.437466488104775, 64.79142794538467]</t>
+          <t>[49.746317526775215, 64.46987317699865]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>22.00000000000034</v>
+        <v>22.94180180180214</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.87555555555588</v>
+        <v>21.91891891891925</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.1244444444448</v>
+        <v>23.96468468468504</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.42000000000038</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.124640691685386e-08</v>
+        <v>2.681529244819014e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>1.124640691685386e-08</v>
+        <v>2.681529244819014e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.3034562289028</v>
+        <v>39.79674538217294</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[30.42150282600322, 60.18540963180237]</t>
+          <t>[20.452863361151692, 59.14062740319418]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.992725093824532e-07</v>
+        <v>0.0001487367425228037</v>
       </c>
       <c r="O7" t="n">
-        <v>1.992725093824532e-07</v>
+        <v>0.0001487367425228037</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2578684660604234</v>
+        <v>0.4213948103914236</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.10692107129334616, 0.6226580034141929]</t>
+          <t>[-0.11950002085726918, 0.9622896416401163]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1614124472431273</v>
+        <v>0.1236241087023064</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1614124472431273</v>
+        <v>0.1236241087023064</v>
       </c>
       <c r="T7" t="n">
-        <v>56.57649341159302</v>
+        <v>47.35415561173416</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.07461355854164, 65.0783732646444]</t>
+          <t>[36.4807208135709, 58.22759040989743]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.671440846313544e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.671440846313544e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>23.41777777777814</v>
+        <v>22.6982582582586</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.00000000000034</v>
+        <v>20.60378378378409</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.83555555555594</v>
+        <v>24.7927327327331</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.42000000000038</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.523524953972455e-07</v>
+        <v>2.343109484215233e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>1.523524953972455e-07</v>
+        <v>2.343109484215233e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>40.32305423760056</v>
+        <v>48.79360900885217</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[24.998763350926545, 55.64734512427457]</t>
+          <t>[34.158801081895746, 63.428416935808585]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.370325960316833e-06</v>
+        <v>2.69822741927328e-08</v>
       </c>
       <c r="O8" t="n">
-        <v>3.370325960316833e-06</v>
+        <v>2.69822741927328e-08</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.04402632347373103, 0.786184347745194]</t>
+          <t>[-0.1320789704211922, 0.4968685077749626]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.07848867703646301</v>
+        <v>0.2488860963610899</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07848867703646301</v>
+        <v>0.2488860963610899</v>
       </c>
       <c r="T8" t="n">
-        <v>63.12025057146082</v>
+        <v>58.50267738080046</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.66645766778101, 71.57404347514063]</t>
+          <t>[49.86705973898089, 67.13829502262004]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.97777777777813</v>
+        <v>23.62372372372408</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.36444444444477</v>
+        <v>22.40600600600634</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.59111111111149</v>
+        <v>24.84144144144181</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.42000000000038</v>
+        <v>24.33000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.637517975718652e-08</v>
+        <v>3.237332635297463e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>3.637517975718652e-08</v>
+        <v>3.237332635297463e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.9476018213845</v>
+        <v>41.30772619293448</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.14220327503007, 63.75300036773892]</t>
+          <t>[26.04179608457298, 56.57365630129598]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.143240207530539e-07</v>
+        <v>2.030020677556976e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>2.143240207530539e-07</v>
+        <v>2.030020677556976e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2578684660604234</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.1320789704211931, 0.6478159025420398]</t>
+          <t>[-0.25786846606042246, 0.6226580034141929]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1895976772625756</v>
+        <v>0.40845545369119</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1895976772625756</v>
+        <v>0.40845545369119</v>
       </c>
       <c r="T9" t="n">
-        <v>50.68573655309238</v>
+        <v>56.31644551507333</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[41.24552008250896, 60.12595302367579]</t>
+          <t>[47.34747801621035, 65.2854130139363]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>23.41777777777814</v>
+        <v>23.62372372372408</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.90222222222256</v>
+        <v>21.91891891891925</v>
       </c>
       <c r="Z9" t="n">
-        <v>24.93333333333372</v>
+        <v>25.3285285285289</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_2_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_2_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.00000000000047</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.163442525127124e-08</v>
+        <v>1.861671322656022e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>2.163442525127124e-08</v>
+        <v>1.861671322656022e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.59733642051505</v>
+        <v>41.23088846809098</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.39046752180237, 52.80420531922773]</t>
+          <t>[27.093731724609164, 55.3680452115728]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.857147607393529e-08</v>
+        <v>4.799719590664608e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>2.857147607393529e-08</v>
+        <v>4.799719590664608e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.553500271144503</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.9182898084982734]</t>
+          <t>[1.0629212381515005, 1.8931319093704273]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.057199103930543e-11</v>
+        <v>5.678526981967025e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>5.057199103930543e-11</v>
+        <v>5.678526981967025e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>45.67476488200646</v>
+        <v>49.06219543323814</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[37.62321548104497, 53.72631428296794]</t>
+          <t>[40.15995948216682, 57.96443138430947]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>18.81881881881917</v>
+        <v>18.85909909909942</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.36736736736768</v>
+        <v>17.22990990991019</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.27027027027065</v>
+        <v>20.48828828828864</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.00000000000047</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.201268220098257e-09</v>
+        <v>4.765665940764663e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>8.201268220098257e-09</v>
+        <v>4.765665940764663e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.09179624470279</v>
+        <v>40.81957353080015</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[32.23993616846488, 63.943656320940704]</t>
+          <t>[24.943027967519882, 56.696119094080416]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.140216388557548e-07</v>
+        <v>5.067846342132754e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.140216388557548e-07</v>
+        <v>5.067846342132754e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.314500229429964</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 1.666710817219811]</t>
+          <t>[0.8868159442565782, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.755658285418349e-09</v>
+        <v>2.448673297461568e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>1.755658285418349e-09</v>
+        <v>2.448673297461568e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>54.39633553393848</v>
+        <v>62.59084825916067</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.274612912458366, 63.5180581554186]</t>
+          <t>[53.41746679813144, 71.7642297201899]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.76976976977014</v>
+        <v>19.45153153153186</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.36836836836871</v>
+        <v>17.7236036036039</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.17117117117157</v>
+        <v>21.17945945945982</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.00000000000047</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.252333474173085e-07</v>
+        <v>3.613681465175489e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.252333474173085e-07</v>
+        <v>3.613681465175489e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>39.46604517489112</v>
+        <v>41.20203055251613</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[24.489831547125156, 54.442258802657086]</t>
+          <t>[27.567067421652517, 54.83699368337974]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.28159647033921e-06</v>
+        <v>2.325251888812829e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>3.28159647033921e-06</v>
+        <v>2.325251888812829e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.352237078121732</v>
+        <v>1.213868632918578</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9119738433844242, 1.7925003128590395]</t>
+          <t>[0.8616580451287312, 1.5660792207084242]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.651552159476211e-07</v>
+        <v>1.244503899933136e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.651552159476211e-07</v>
+        <v>1.244503899933136e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>52.87604776505727</v>
+        <v>50.10550658317554</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.2591734032096, 61.49292212690493]</t>
+          <t>[42.58138992798253, 57.62962323836855]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.61961961961999</v>
+        <v>19.89585585585619</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.86786786786821</v>
+        <v>18.51351351351383</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.37137137137178</v>
+        <v>21.27819819819856</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.00000000000047</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.45724887046628e-06</v>
+        <v>8.199770862304945e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>5.45724887046628e-06</v>
+        <v>8.199770862304945e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>37.51186785259279</v>
+        <v>45.55293774245848</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.092245969111552, 55.931489736074035]</t>
+          <t>[30.484037851143626, 60.621837633773325]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001697083080771655</v>
+        <v>2.306353934500294e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001697083080771655</v>
+        <v>2.306353934500294e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7987632973091161</v>
+        <v>1.012605439895808</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.34592111300788453, 1.2516054816103477]</t>
+          <t>[0.6855527512338089, 1.339658128557808]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.000908661047379411</v>
+        <v>1.392664321642201e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000908661047379411</v>
+        <v>1.392664321642201e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>48.8985040676629</v>
+        <v>51.02328809245622</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.53126397628262, 58.26574415904318]</t>
+          <t>[43.19984131982292, 58.846734865089516]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.056932319443149e-13</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1.056932319443149e-13</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>21.82182182182223</v>
+        <v>20.68576576576612</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.0200200200204</v>
+        <v>19.4021621621625</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.62362362362407</v>
+        <v>21.96936936936974</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.33000000000036</v>
+        <v>24.12000000000033</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.963274153306884e-12</v>
+        <v>2.256690012636398e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>3.963274153306884e-12</v>
+        <v>2.256690012636398e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.9166441207228</v>
+        <v>44.55228946297941</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[38.55920755467403, 65.27408068677157]</t>
+          <t>[28.685103863043267, 60.41947506291555]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.136280372714964e-10</v>
+        <v>1.011635033076885e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>6.136280372714964e-10</v>
+        <v>1.011635033076885e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3585000625718084</v>
+        <v>0.4339737599553466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.09434212172942402, 0.6226580034141929]</t>
+          <t>[0.0691842226015762, 0.798763297309117]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.008928589696802103</v>
+        <v>0.02078962670548501</v>
       </c>
       <c r="S6" t="n">
-        <v>0.008928589696802103</v>
+        <v>0.02078962670548501</v>
       </c>
       <c r="T6" t="n">
-        <v>57.10809535188693</v>
+        <v>50.81389001808188</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.746317526775215, 64.46987317699865]</t>
+          <t>[42.161642076237456, 59.4661379599263]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>22.94180180180214</v>
+        <v>22.45405405405436</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.91891891891925</v>
+        <v>21.05369369369398</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.96468468468504</v>
+        <v>23.85441441441474</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.33000000000036</v>
+        <v>24.12000000000033</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.681529244819014e-05</v>
+        <v>9.635998887702613e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>2.681529244819014e-05</v>
+        <v>9.635998887702613e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>39.79674538217294</v>
+        <v>42.64267963509015</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[20.452863361151692, 59.14062740319418]</t>
+          <t>[28.28579161702647, 56.99956765315384]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001487367425228037</v>
+        <v>3.317444736694597e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001487367425228037</v>
+        <v>3.317444736694597e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.3585000625718084</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.11950002085726918, 0.9622896416401163]</t>
+          <t>[-0.018868424345884094, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1236241087023064</v>
+        <v>0.06207179606685953</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1236241087023064</v>
+        <v>0.06207179606685953</v>
       </c>
       <c r="T7" t="n">
-        <v>47.35415561173416</v>
+        <v>48.8511037621037</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[36.4807208135709, 58.22759040989743]</t>
+          <t>[40.84746435335367, 56.85474317085374]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.671440846313544e-11</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>2.671440846313544e-11</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>22.6982582582586</v>
+        <v>22.7437837837841</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.60378378378409</v>
+        <v>21.29513513513543</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.7927327327331</v>
+        <v>24.19243243243276</v>
       </c>
     </row>
     <row r="8">
@@ -1097,53 +1097,53 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.33000000000036</v>
+        <v>24.12000000000033</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.343109484215233e-09</v>
+        <v>6.344673897373809e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.343109484215233e-09</v>
+        <v>6.344673897373809e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>48.79360900885217</v>
+        <v>40.50623164711786</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.158801081895746, 63.428416935808585]</t>
+          <t>[27.310970420491174, 53.70149287374454]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.69822741927328e-08</v>
+        <v>1.670708362766504e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>2.69822741927328e-08</v>
+        <v>1.670708362766504e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.3207632138800385</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.1320789704211922, 0.4968685077749626]</t>
+          <t>[-0.04402632347373192, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.2488860963610899</v>
+        <v>0.08332996393067837</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2488860963610899</v>
+        <v>0.08332996393067837</v>
       </c>
       <c r="T8" t="n">
-        <v>58.50267738080046</v>
+        <v>49.57192388269229</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.86705973898089, 67.13829502262004]</t>
+          <t>[42.09724403750674, 57.04660372787784]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>23.62372372372408</v>
+        <v>22.88864864864896</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.40600600600634</v>
+        <v>21.48828828828858</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.84144144144181</v>
+        <v>24.28900900900934</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.33000000000036</v>
+        <v>24.12000000000033</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.237332635297463e-07</v>
+        <v>1.086429434082881e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>3.237332635297463e-07</v>
+        <v>1.086429434082881e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>41.30772619293448</v>
+        <v>37.31918828328637</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[26.04179608457298, 56.57365630129598]</t>
+          <t>[22.24732617325313, 52.3910503933196]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.030020677556976e-06</v>
+        <v>9.60311375597378e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>2.030020677556976e-06</v>
+        <v>9.60311375597378e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.3710790121357306</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.25786846606042246, 0.6226580034141929]</t>
+          <t>[-0.081763172165501, 0.8239211964369622]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.40845545369119</v>
+        <v>0.1058152931380039</v>
       </c>
       <c r="S9" t="n">
-        <v>0.40845545369119</v>
+        <v>0.1058152931380039</v>
       </c>
       <c r="T9" t="n">
-        <v>56.31644551507333</v>
+        <v>52.65825826344876</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.34747801621035, 65.2854130139363]</t>
+          <t>[44.04412057774811, 61.272395949149406]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>23.62372372372408</v>
+        <v>22.69549549549581</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.91891891891925</v>
+        <v>20.95711711711741</v>
       </c>
       <c r="Z9" t="n">
-        <v>25.3285285285289</v>
+        <v>24.43387387387421</v>
       </c>
     </row>
   </sheetData>
